--- a/Webinars/BusinessIntelligence/Webinar/Output/Budgets.xlsx
+++ b/Webinars/BusinessIntelligence/Webinar/Output/Budgets.xlsx
@@ -6,14 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MovieGrossDifference" sheetId="1" r:id="rId2"/>
+    <sheet name="MovieTotalGross" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="276">
   <si>
     <t>Movie</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Worldwide Gross</t>
   </si>
   <si>
+    <t>Production Budget</t>
+  </si>
+  <si>
     <t>Borough</t>
   </si>
   <si>
@@ -48,7 +51,139 @@
     <t>LATITUDE</t>
   </si>
   <si>
-    <t>Gross Difference</t>
+    <t>International Gross</t>
+  </si>
+  <si>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2002/05/03</t>
+  </si>
+  <si>
+    <t>403706375</t>
+  </si>
+  <si>
+    <t>821706375</t>
+  </si>
+  <si>
+    <t>139000000</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Midtown</t>
+  </si>
+  <si>
+    <t>Sam Raimi</t>
+  </si>
+  <si>
+    <t>Midtown&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.9797556400299</t>
+  </si>
+  <si>
+    <t>40.7525887995655</t>
+  </si>
+  <si>
+    <t>Men in Black</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1997/07/01</t>
+  </si>
+  <si>
+    <t>250690539</t>
+  </si>
+  <si>
+    <t>587790539</t>
+  </si>
+  <si>
+    <t>90000000</t>
+  </si>
+  <si>
+    <t>Lower Manhattan</t>
+  </si>
+  <si>
+    <t>Barry Sonnenfeld</t>
+  </si>
+  <si>
+    <t>Battery Park&lt;br&gt;Lower Manhattan</t>
+  </si>
+  <si>
+    <t>-74.014726281166</t>
+  </si>
+  <si>
+    <t>40.7043591450871</t>
+  </si>
+  <si>
+    <t>Hitch</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2005/02/11</t>
+  </si>
+  <si>
+    <t>177784257</t>
+  </si>
+  <si>
+    <t>366784257</t>
+  </si>
+  <si>
+    <t>55000000</t>
+  </si>
+  <si>
+    <t>SoHo</t>
+  </si>
+  <si>
+    <t>Andy Tennant</t>
+  </si>
+  <si>
+    <t>Spring St. and Greene St.&lt;br&gt;SoHo&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-74.0004</t>
+  </si>
+  <si>
+    <t>40.7238</t>
+  </si>
+  <si>
+    <t>Die Hard: With a Vengeance</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1995/05/19</t>
+  </si>
+  <si>
+    <t>100012499</t>
+  </si>
+  <si>
+    <t>366101666</t>
+  </si>
+  <si>
+    <t>Central Park</t>
+  </si>
+  <si>
+    <t>John McTiernan</t>
+  </si>
+  <si>
+    <t>Central Park South&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.9789938926696</t>
+  </si>
+  <si>
+    <t>40.7670541295091</t>
   </si>
   <si>
     <t>Crocodile Dundee</t>
@@ -66,10 +201,7 @@
     <t xml:space="preserve">328203506 </t>
   </si>
   <si>
-    <t>Manhattan</t>
-  </si>
-  <si>
-    <t>Midtown</t>
+    <t xml:space="preserve">8800000 </t>
   </si>
   <si>
     <t>Peter Faiman</t>
@@ -84,6 +216,39 @@
     <t>40.7604</t>
   </si>
   <si>
+    <t>Ghostbusters</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1984/06/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242212467 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">295212467 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30000000 </t>
+  </si>
+  <si>
+    <t>Upper West Side</t>
+  </si>
+  <si>
+    <t>Ivan Reitman</t>
+  </si>
+  <si>
+    <t>Columbus Circle&lt;br&gt;Upper West Side&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.9819550514221</t>
+  </si>
+  <si>
+    <t>40.7681267139935</t>
+  </si>
+  <si>
     <t>Saturday Night Fever</t>
   </si>
   <si>
@@ -99,6 +264,9 @@
     <t xml:space="preserve">282400000 </t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Brooklyn</t>
   </si>
   <si>
@@ -114,21 +282,72 @@
     <t>40.6228</t>
   </si>
   <si>
-    <t>Subway Car&lt;br&gt;Brooklyn</t>
-  </si>
-  <si>
-    <t>-73.9970237016677</t>
-  </si>
-  <si>
-    <t>40.626070204675</t>
+    <t>You've Got Mail</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1998/12/18</t>
+  </si>
+  <si>
+    <t>115821495</t>
+  </si>
+  <si>
+    <t>250800000</t>
+  </si>
+  <si>
+    <t>65000000</t>
+  </si>
+  <si>
+    <t>Nora Ephron</t>
+  </si>
+  <si>
+    <t>Verdi Square&lt;br&gt;W. 73rd St.  &amp; Broadway&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.9815366268158</t>
+  </si>
+  <si>
+    <t>40.7792578185718</t>
+  </si>
+  <si>
+    <t>Vanilla Sky</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2001/12/14</t>
+  </si>
+  <si>
+    <t>100614858</t>
+  </si>
+  <si>
+    <t>202726605</t>
+  </si>
+  <si>
+    <t>70000000</t>
+  </si>
+  <si>
+    <t>Times Square</t>
+  </si>
+  <si>
+    <t>Cameron Crowe</t>
+  </si>
+  <si>
+    <t>W. 45th St. and Seventh Ave.&lt;br&gt;Times Square&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.9853990077972</t>
+  </si>
+  <si>
+    <t>40.757871447842</t>
   </si>
   <si>
     <t>Sweet Home Alabama</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
     <t>2002/09/27</t>
   </si>
   <si>
@@ -138,7 +357,7 @@
     <t xml:space="preserve">182365114 </t>
   </si>
   <si>
-    <t>Andy Tennant</t>
+    <t xml:space="preserve">38000000 </t>
   </si>
   <si>
     <t>Tiffany &amp; Co.&lt;br&gt;727 Fifth Ave.&lt;br&gt;Manhattan</t>
@@ -150,6 +369,144 @@
     <t>40.7627961233669</t>
   </si>
   <si>
+    <t>The Interpreter</t>
+  </si>
+  <si>
+    <t>2005/04/22</t>
+  </si>
+  <si>
+    <t>72708161</t>
+  </si>
+  <si>
+    <t>162753837</t>
+  </si>
+  <si>
+    <t>Sydney Pollack</t>
+  </si>
+  <si>
+    <t>United Nations&lt;br&gt;First Ave. and E. 45th St.&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.9679539203643</t>
+  </si>
+  <si>
+    <t>40.7506706880159</t>
+  </si>
+  <si>
+    <t>The Siege</t>
+  </si>
+  <si>
+    <t>1998/11/06</t>
+  </si>
+  <si>
+    <t>40934175</t>
+  </si>
+  <si>
+    <t>116625798</t>
+  </si>
+  <si>
+    <t>Edward Zwick</t>
+  </si>
+  <si>
+    <t>Greenpoint&lt;br&gt;Brooklyn</t>
+  </si>
+  <si>
+    <t>-73.9543604850769</t>
+  </si>
+  <si>
+    <t>40.7302507497813</t>
+  </si>
+  <si>
+    <t>Shaft</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2000/06/16</t>
+  </si>
+  <si>
+    <t>70327868</t>
+  </si>
+  <si>
+    <t>107190108</t>
+  </si>
+  <si>
+    <t>53012938</t>
+  </si>
+  <si>
+    <t>John Singleton</t>
+  </si>
+  <si>
+    <t>New York County Courthouse&lt;br&gt;60 Centre St.&lt;br&gt;Lower Manhattan</t>
+  </si>
+  <si>
+    <t>-74.002329</t>
+  </si>
+  <si>
+    <t>40.714451</t>
+  </si>
+  <si>
+    <t>Kramer vs. Kramer</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1979/12/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106260000 </t>
+  </si>
+  <si>
+    <t>Upper East Side</t>
+  </si>
+  <si>
+    <t>Robert Benton</t>
+  </si>
+  <si>
+    <t>P.S. 6 (45 E. 81st St.)&lt;br&gt;Upper East Side&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.960694</t>
+  </si>
+  <si>
+    <t>40.777554</t>
+  </si>
+  <si>
+    <t>When Harry Met Sally…</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1989/07/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92823546 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">92961960 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16000000 </t>
+  </si>
+  <si>
+    <t>Lower East Side</t>
+  </si>
+  <si>
+    <t>Rob Reiner</t>
+  </si>
+  <si>
+    <t>Katz's Deli&lt;br&gt;205 E. Houston St.&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.987433</t>
+  </si>
+  <si>
+    <t>40.722322</t>
+  </si>
+  <si>
     <t>Eternal Sunshine of the Spotless Mind</t>
   </si>
   <si>
@@ -165,7 +522,7 @@
     <t xml:space="preserve">72625689 </t>
   </si>
   <si>
-    <t>Lower East Side</t>
+    <t xml:space="preserve">20000000 </t>
   </si>
   <si>
     <t>Michel Gondry</t>
@@ -180,12 +537,192 @@
     <t>40.7203</t>
   </si>
   <si>
+    <t>1979/04/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39946780 </t>
+  </si>
+  <si>
+    <t>Woody Allen</t>
+  </si>
+  <si>
+    <t>MoMA&lt;br&gt;W. 53rd St.&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.9772021770477</t>
+  </si>
+  <si>
+    <t>40.7611383525427</t>
+  </si>
+  <si>
+    <t>American Psycho</t>
+  </si>
+  <si>
+    <t>2000/04/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15070285 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28674417 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8000000 </t>
+  </si>
+  <si>
+    <t>Chinatown</t>
+  </si>
+  <si>
+    <t>Mary Harron</t>
+  </si>
+  <si>
+    <t>Chinatown&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.9980804920196</t>
+  </si>
+  <si>
+    <t>40.7162165380157</t>
+  </si>
+  <si>
+    <t>Taxi Driver</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1976/02/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28262574 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28316211 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000000 </t>
+  </si>
+  <si>
+    <t>East Village</t>
+  </si>
+  <si>
+    <t>Martin Scorsese</t>
+  </si>
+  <si>
+    <t>E. 12th St. and Third Ave.&lt;br&gt;East Village&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.9882</t>
+  </si>
+  <si>
+    <t>40.732</t>
+  </si>
+  <si>
+    <t>25th Hour</t>
+  </si>
+  <si>
+    <t>2002/12/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13084595 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25344490 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4500000 </t>
+  </si>
+  <si>
+    <t>Spike Lee</t>
+  </si>
+  <si>
+    <t>World Trade Center&lt;br&gt;Lower Manhattan</t>
+  </si>
+  <si>
+    <t>-74.0123283863067</t>
+  </si>
+  <si>
+    <t>40.7117926273691</t>
+  </si>
+  <si>
+    <t>Hudson Hawk</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1991/05/24</t>
+  </si>
+  <si>
+    <t>17218916</t>
+  </si>
+  <si>
+    <t>Michael Lehmann</t>
+  </si>
+  <si>
+    <t>Brooklyn Bridge</t>
+  </si>
+  <si>
+    <t>-73.9931881427764</t>
+  </si>
+  <si>
+    <t>40.7031065948382</t>
+  </si>
+  <si>
+    <t>Breakfast at Tiffany's</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1961/10/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9551904 </t>
+  </si>
+  <si>
+    <t>Blake Edwards</t>
+  </si>
+  <si>
+    <t>Tiffany &amp; Co. at 727 Fifth Ave.&lt;br&gt;Midtown&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.974142</t>
+  </si>
+  <si>
+    <t>40.76251</t>
+  </si>
+  <si>
+    <t>Death to Smoochy</t>
+  </si>
+  <si>
+    <t>2002/03/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8355815 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8374062 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50000000 </t>
+  </si>
+  <si>
+    <t>Danny DeVito</t>
+  </si>
+  <si>
+    <t>Seventh Ave. and 48th St.&lt;br&gt;Times Square&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.9842</t>
+  </si>
+  <si>
+    <t>40.7598</t>
+  </si>
+  <si>
     <t>Requiem for a Dream</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>2000/10/06</t>
   </si>
   <si>
@@ -207,174 +744,18 @@
     <t>40.5722319682892</t>
   </si>
   <si>
-    <t>When Harry Met Sally…</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1989/07/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92823546 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">92961960 </t>
-  </si>
-  <si>
-    <t>Rob Reiner</t>
-  </si>
-  <si>
-    <t>Katz's Deli&lt;br&gt;205 E. Houston St.&lt;br&gt;Manhattan</t>
-  </si>
-  <si>
-    <t>-73.987433</t>
-  </si>
-  <si>
-    <t>40.722322</t>
+    <t>Little Manhattan</t>
+  </si>
+  <si>
+    <t>2005/09/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">385373 </t>
   </si>
   <si>
     <t>West Village</t>
   </si>
   <si>
-    <t>Washington Square Park&lt;br&gt;West Village&lt;br&gt;Manhattan</t>
-  </si>
-  <si>
-    <t>-73.9971846342086</t>
-  </si>
-  <si>
-    <t>40.7311369361184</t>
-  </si>
-  <si>
-    <t>Death to Smoochy</t>
-  </si>
-  <si>
-    <t>2002/03/29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8355815 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8374062 </t>
-  </si>
-  <si>
-    <t>Times Square</t>
-  </si>
-  <si>
-    <t>Danny DeVito</t>
-  </si>
-  <si>
-    <t>Seventh Ave. and 48th St.&lt;br&gt;Times Square&lt;br&gt;Manhattan</t>
-  </si>
-  <si>
-    <t>-73.9842</t>
-  </si>
-  <si>
-    <t>40.7598</t>
-  </si>
-  <si>
-    <t>Breakfast at Tiffany's</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1961/10/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9551904 </t>
-  </si>
-  <si>
-    <t>Blake Edwards</t>
-  </si>
-  <si>
-    <t>Tiffany &amp; Co. at 727 Fifth Ave.&lt;br&gt;Midtown&lt;br&gt;Manhattan</t>
-  </si>
-  <si>
-    <t>-73.974142</t>
-  </si>
-  <si>
-    <t>40.76251</t>
-  </si>
-  <si>
-    <t>Upper East Side</t>
-  </si>
-  <si>
-    <t>E. 71st St.&lt;br&gt;Upper East Side&lt;br&gt;Manhattan</t>
-  </si>
-  <si>
-    <t>-73.9664304256439</t>
-  </si>
-  <si>
-    <t>40.7713606139352</t>
-  </si>
-  <si>
-    <t>Central Park</t>
-  </si>
-  <si>
-    <t>Central Park Mall&lt;br&gt;Manhattan</t>
-  </si>
-  <si>
-    <t>-73.9712798595428</t>
-  </si>
-  <si>
-    <t>40.7732131289256</t>
-  </si>
-  <si>
-    <t>Kramer vs. Kramer</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1979/12/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106260000 </t>
-  </si>
-  <si>
-    <t>Robert Benton</t>
-  </si>
-  <si>
-    <t>P.S. 6 (45 E. 81st St.)&lt;br&gt;Upper East Side&lt;br&gt;Manhattan</t>
-  </si>
-  <si>
-    <t>-73.960694</t>
-  </si>
-  <si>
-    <t>40.777554</t>
-  </si>
-  <si>
-    <t>1979/04/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39946780 </t>
-  </si>
-  <si>
-    <t>Woody Allen</t>
-  </si>
-  <si>
-    <t>MoMA&lt;br&gt;W. 53rd St.&lt;br&gt;Manhattan</t>
-  </si>
-  <si>
-    <t>-73.9772021770477</t>
-  </si>
-  <si>
-    <t>40.7611383525427</t>
-  </si>
-  <si>
-    <t>Little Manhattan</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2005/09/30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">385373 </t>
-  </si>
-  <si>
     <t>Mark Levin</t>
   </si>
   <si>
@@ -385,6 +766,81 @@
   </si>
   <si>
     <t>40.7336084393223</t>
+  </si>
+  <si>
+    <t>West Side Story</t>
+  </si>
+  <si>
+    <t>1961/10/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43700000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000000 </t>
+  </si>
+  <si>
+    <t>Robert Wise,Jerome Robbins</t>
+  </si>
+  <si>
+    <t>W. 68th St.&lt;br&gt;Upper West Side&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.983918428421</t>
+  </si>
+  <si>
+    <t>40.7762192933307</t>
+  </si>
+  <si>
+    <t>State of Grace</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1990/09/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1911542 </t>
+  </si>
+  <si>
+    <t>Phil Joanou</t>
+  </si>
+  <si>
+    <t>Hell's Kitchen&lt;br&gt;Manhattan</t>
+  </si>
+  <si>
+    <t>-73.9912569522857</t>
+  </si>
+  <si>
+    <t>40.7603744638357</t>
+  </si>
+  <si>
+    <t>Sophie's Choice</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1982/12/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25215547 </t>
+  </si>
+  <si>
+    <t>Alan J. Pakula</t>
+  </si>
+  <si>
+    <t>101 Rugby Rd.&lt;br&gt;Brooklyn</t>
+  </si>
+  <si>
+    <t>-73.966373</t>
+  </si>
+  <si>
+    <t>40.647334</t>
   </si>
 </sst>
 </file>
@@ -433,7 +889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="true"/>
@@ -448,6 +904,7 @@
     <col min="10" max="10" width="20.7109375" customWidth="true"/>
     <col min="11" max="11" width="20.7109375" customWidth="true"/>
     <col min="12" max="12" width="20.7109375" customWidth="true"/>
+    <col min="13" max="13" width="20.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -487,575 +944,1156 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2">
-        <v>153400000</v>
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>418000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3">
-        <v>142913876</v>
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3">
+        <v>337100000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4">
-        <v>142913876</v>
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4">
+        <v>189000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5">
-        <v>55151042</v>
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5">
+        <v>266089167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6">
-        <v>38259171</v>
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6">
+        <v>153400000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7">
-        <v>3753751</v>
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7">
+        <v>53000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8">
-        <v>138414</v>
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8">
+        <v>142913876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
         <v>73</v>
       </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9">
-        <v>138414</v>
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9">
+        <v>134978505</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10">
-        <v>18247</v>
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10">
+        <v>102111747</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11">
+        <v>55151042</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12">
+        <v>90045676</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13">
+        <v>75691623</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14">
+        <v>36862240</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16">
+        <v>138414</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17">
+        <v>38259171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19">
+        <v>13604132</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20">
+        <v>53637</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21">
+        <v>12259895</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24">
+        <v>18247</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25">
+        <v>3753751</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>246</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
         <v>73</v>
       </c>
-      <c r="H16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" t="s">
-        <v>123</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27">
+        <v>-43700000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
